--- a/data/stat probs/cole anthony stat probs - condition.xlsx
+++ b/data/stat probs/cole anthony stat probs - condition.xlsx
@@ -25,12 +25,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -585,28 +585,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1579,28 +1579,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -2895,28 +2895,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -3665,28 +3665,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4371,28 +4371,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5077,28 +5077,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5751,28 +5751,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6425,28 +6425,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -7419,28 +7419,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -8350,7 +8350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8413,28 +8413,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -8489,16 +8489,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -8515,22 +8515,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -8547,16 +8547,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8579,16 +8579,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8637,16 +8637,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8669,10 +8669,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8733,10 +8733,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8829,10 +8829,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8861,10 +8861,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8893,10 +8893,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8925,10 +8925,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8957,10 +8957,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8978,6 +8978,198 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9055,28 +9247,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -9981,6 +10173,840 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>88</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>88</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62</v>
+      </c>
+      <c r="D12" t="n">
+        <v>38</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>62</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>88</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>88</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10049,28 +11075,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10622,7 +11648,649 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>67</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>67</v>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>67</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>67</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>33</v>
+      </c>
+      <c r="D19" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10691,28 +12359,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -11616,7 +13284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11685,28 +13353,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -12602,1546 +14270,6 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>62</v>
-      </c>
-      <c r="F6" t="n">
-        <v>38</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>38</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>88</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>62</v>
-      </c>
-      <c r="G8" t="n">
-        <v>38</v>
-      </c>
-      <c r="H8" t="n">
-        <v>62</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>62</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>62</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>38</v>
-      </c>
-      <c r="D18" t="n">
-        <v>62</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>88</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>88</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>62</v>
-      </c>
-      <c r="F6" t="n">
-        <v>38</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>38</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>88</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>62</v>
-      </c>
-      <c r="G8" t="n">
-        <v>38</v>
-      </c>
-      <c r="H8" t="n">
-        <v>62</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>62</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>62</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>38</v>
-      </c>
-      <c r="D18" t="n">
-        <v>62</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>38</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>88</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>88</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14219,28 +14347,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -14829,28 +14957,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -15439,22 +15567,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15857,22 +15985,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16275,28 +16403,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -16949,28 +17077,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -17783,28 +17911,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -18457,28 +18585,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19099,28 +19227,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19741,28 +19869,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -20511,28 +20639,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -21281,28 +21409,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21955,28 +22083,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22629,28 +22757,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23527,28 +23655,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -24425,28 +24553,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25067,28 +25195,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -25901,28 +26029,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26543,28 +26671,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27377,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28211,28 +28339,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28917,28 +29045,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29623,28 +29751,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29913,28 +30041,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30203,28 +30331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -31197,28 +31325,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -32191,28 +32319,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32481,28 +32609,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -33475,28 +33603,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33765,28 +33893,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34375,28 +34503,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34985,28 +35113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35787,28 +35915,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36589,22 +36717,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36943,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37297,28 +37425,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37875,28 +38003,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38453,28 +38581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38775,28 +38903,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -39769,28 +39897,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40091,22 +40219,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40733,22 +40861,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41375,28 +41503,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42113,28 +42241,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42851,28 +42979,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43301,28 +43429,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43751,28 +43879,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44521,28 +44649,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45291,28 +45419,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -45965,28 +46093,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46735,28 +46863,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -47409,28 +47537,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48211,28 +48339,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49013,22 +49141,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49335,22 +49463,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49657,22 +49785,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -50011,22 +50139,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -50365,28 +50493,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50975,28 +51103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51585,22 +51713,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51875,28 +52003,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52645,22 +52773,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -52935,28 +53063,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -53833,28 +53961,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -54731,22 +54859,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55085,22 +55213,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55439,22 +55567,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55793,22 +55921,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -56147,28 +56275,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -56981,28 +57109,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57815,28 +57943,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58393,28 +58521,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58939,28 +59067,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -59517,28 +59645,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -60415,28 +60543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -61313,28 +61441,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -61987,28 +62115,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -62661,22 +62789,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -63111,22 +63239,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -63561,28 +63689,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63947,28 +64075,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
